--- a/Mailer/db.xlsx
+++ b/Mailer/db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroenriqueandrade/Desktop/pymailer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroenriqueandrade/Desktop/pymailer/Mailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>E-mail</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>Branding</t>
+  </si>
+  <si>
+    <t>Nome da Empresa</t>
+  </si>
+  <si>
+    <t>Glovo</t>
+  </si>
+  <si>
+    <t>Banco Safra</t>
+  </si>
+  <si>
+    <t>Bodytech</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -292,19 +304,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -410,14 +409,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,13 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,26 +464,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AG140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,6 +787,7 @@
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.1640625" bestFit="1" customWidth="1"/>
@@ -771,42 +807,45 @@
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="G3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="14" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="Q3" s="14" t="s">
+      <c r="O3" s="14"/>
+      <c r="Q3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="T3" s="14" t="s">
+      <c r="R3" s="14"/>
+      <c r="T3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="W3" s="14" t="s">
+      <c r="U3" s="14"/>
+      <c r="W3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Z3" s="14" t="s">
+      <c r="X3" s="14"/>
+      <c r="Z3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AC3" s="14" t="s">
+      <c r="AA3" s="14"/>
+      <c r="AC3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AD3" s="14"/>
+      <c r="AF3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="15"/>
+      <c r="AG3" s="14"/>
     </row>
     <row r="4" spans="3:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
@@ -818,52 +857,55 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="G4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AG4" s="6" t="s">
@@ -880,53 +922,56 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="G5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="13"/>
-      <c r="AF5" s="13" t="s">
+      <c r="AD5" s="12"/>
+      <c r="AF5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="13"/>
+      <c r="AG5" s="12"/>
     </row>
     <row r="6" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
@@ -938,769 +983,808 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="G6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
     </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="W7" s="12" t="s">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="W7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AA7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="W8" s="12" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="W8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="19"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="19"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="19"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="19"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="19"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="19"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="19"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="19"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="19"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="19"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="19"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="19"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="19"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
     </row>
     <row r="33" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="19"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
     </row>
     <row r="34" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="19"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
     </row>
     <row r="35" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="19"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
     </row>
     <row r="36" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="19"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
     </row>
     <row r="37" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
